--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl3-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl3-Ackr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>119.8399886666667</v>
+        <v>1.519357</v>
       </c>
       <c r="H2">
-        <v>359.519966</v>
+        <v>4.558071</v>
       </c>
       <c r="I2">
-        <v>0.03880186323141418</v>
+        <v>0.0004273171801484077</v>
       </c>
       <c r="J2">
-        <v>0.03880186323141418</v>
+        <v>0.0004273171801484077</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -570,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>31.40047383044</v>
+        <v>0.39810192114</v>
       </c>
       <c r="R2">
-        <v>282.60426447396</v>
+        <v>3.58291729026</v>
       </c>
       <c r="S2">
-        <v>0.03880186323141418</v>
+        <v>0.0004273171801484077</v>
       </c>
       <c r="T2">
-        <v>0.03880186323141418</v>
+        <v>0.0004273171801484077</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +590,31 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.135447</v>
+        <v>151.6315156666667</v>
       </c>
       <c r="H3">
-        <v>0.406341</v>
+        <v>454.894547</v>
       </c>
       <c r="I3">
-        <v>4.385511069868112E-05</v>
+        <v>0.0426461665667181</v>
       </c>
       <c r="J3">
-        <v>4.385511069868111E-05</v>
+        <v>0.04264616656671809</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -632,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.03548982294</v>
+        <v>39.73048973498</v>
       </c>
       <c r="R3">
-        <v>0.31940840646</v>
+        <v>357.57440761482</v>
       </c>
       <c r="S3">
-        <v>4.385511069868112E-05</v>
+        <v>0.0426461665667181</v>
       </c>
       <c r="T3">
-        <v>4.385511069868111E-05</v>
+        <v>0.04264616656671809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +652,31 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2801.031738</v>
+        <v>0.08050133333333333</v>
       </c>
       <c r="H4">
-        <v>8403.095214000001</v>
+        <v>0.241504</v>
       </c>
       <c r="I4">
-        <v>0.906919732002253</v>
+        <v>2.264089529859475E-05</v>
       </c>
       <c r="J4">
-        <v>0.906919732002253</v>
+        <v>2.264089529859474E-05</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -694,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>733.92633599076</v>
+        <v>0.02109295936</v>
       </c>
       <c r="R4">
-        <v>6605.337023916841</v>
+        <v>0.18983663424</v>
       </c>
       <c r="S4">
-        <v>0.906919732002253</v>
+        <v>2.264089529859475E-05</v>
       </c>
       <c r="T4">
-        <v>0.906919732002253</v>
+        <v>2.264089529859474E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +714,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>167.5040133333333</v>
+        <v>3259.30721</v>
       </c>
       <c r="H5">
-        <v>502.5120400000001</v>
+        <v>9777.921630000001</v>
       </c>
       <c r="I5">
-        <v>0.05423454965563424</v>
+        <v>0.9166759137020294</v>
       </c>
       <c r="J5">
-        <v>0.05423454965563424</v>
+        <v>0.9166759137020293</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -756,16 +759,78 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>43.8894015736</v>
+        <v>854.0036751642</v>
       </c>
       <c r="R5">
-        <v>395.0046141624001</v>
+        <v>7686.0330764778</v>
       </c>
       <c r="S5">
-        <v>0.05423454965563424</v>
+        <v>0.9166759137020294</v>
       </c>
       <c r="T5">
-        <v>0.05423454965563424</v>
+        <v>0.9166759137020293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>143.033414</v>
+      </c>
+      <c r="H6">
+        <v>429.100242</v>
+      </c>
+      <c r="I6">
+        <v>0.04022796165580557</v>
+      </c>
+      <c r="J6">
+        <v>0.04022796165580557</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.26202</v>
+      </c>
+      <c r="N6">
+        <v>0.78606</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>37.47761513628</v>
+      </c>
+      <c r="R6">
+        <v>337.29853622652</v>
+      </c>
+      <c r="S6">
+        <v>0.04022796165580557</v>
+      </c>
+      <c r="T6">
+        <v>0.04022796165580557</v>
       </c>
     </row>
   </sheetData>
